--- a/Framework/SpringFramework/SpringDI.xlsx
+++ b/Framework/SpringFramework/SpringDI.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bisi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\kanosawa\Doc\Framework\SpringFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="DIのイメージ" sheetId="2" r:id="rId1"/>
     <sheet name="SpringのDI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="289">
   <si>
     <t>JavaベースConfiguration</t>
     <phoneticPr fontId="1"/>
@@ -2770,6 +2770,22 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>チュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通機能の組み込み</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3250,10 +3266,128 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="直方体 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="18221325"/>
+          <a:ext cx="5166632" cy="5116286"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4846"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コンテナ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="19316700"/>
+          <a:ext cx="1409700" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>24014</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
@@ -3268,8 +3402,69 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3456215" y="10800871"/>
-          <a:ext cx="5048250" cy="5378022"/>
+          <a:off x="3533776" y="11344275"/>
+          <a:ext cx="5166632" cy="5116286"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4846"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コンテナ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="直方体 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3506641" y="6150429"/>
+          <a:ext cx="4957002" cy="3673928"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst>
@@ -3311,77 +3506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="直方体 105"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552265" y="6824383"/>
-          <a:ext cx="3283323" cy="3160058"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8533"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンテナ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129622</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>172752</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100989</xdr:rowOff>
+      <xdr:colOff>134651</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3390,8 +3524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="2568022"/>
-          <a:ext cx="2268252" cy="2104967"/>
+          <a:off x="942974" y="2686050"/>
+          <a:ext cx="1725327" cy="1567839"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3414,14 +3548,31 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クライアント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>クラス</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3471,10 +3622,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3507,26 +3658,22 @@
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>89391</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>172752</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>56026</xdr:rowOff>
+      <xdr:colOff>172751</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>113176</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3535,8 +3682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="6337791"/>
-          <a:ext cx="2268252" cy="2100235"/>
+          <a:off x="1057274" y="6562725"/>
+          <a:ext cx="1649127" cy="1627651"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3559,27 +3706,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>クライアント</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クラス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3587,16 +3721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>103947</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>103529</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>157074</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3605,8 +3739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4266372" y="7113929"/>
-          <a:ext cx="1500927" cy="763246"/>
+          <a:off x="5919107" y="6844394"/>
+          <a:ext cx="1551214" cy="884464"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3629,10 +3763,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3650,6 +3784,18 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -3659,15 +3805,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>インスタンス</a:t>
+            <a:t>情報</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3676,25 +3818,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>51707</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27156</xdr:rowOff>
+      <xdr:rowOff>100694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19464</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2790825" y="7342356"/>
-          <a:ext cx="1391064" cy="1419"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2705100" y="7285265"/>
+          <a:ext cx="1118507" cy="8163"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3723,62 +3865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>167310</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25261</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2847975" y="7639050"/>
-          <a:ext cx="1300785" cy="6211"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>73420</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:rowOff>6804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>139384</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>75432</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3787,8 +3882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2788045" y="3359603"/>
-          <a:ext cx="970839" cy="68629"/>
+          <a:off x="2790825" y="3359604"/>
+          <a:ext cx="968059" cy="12246"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3817,7 +3912,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81112</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>69396</xdr:rowOff>
     </xdr:from>
@@ -3825,7 +3920,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>152991</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>110217</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3834,8 +3929,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2795737" y="3726996"/>
-          <a:ext cx="976754" cy="40821"/>
+          <a:off x="2781300" y="3726996"/>
+          <a:ext cx="991191" cy="16329"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3886,26 +3981,24 @@
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -46185"/>
-            <a:gd name="adj2" fmla="val 77993"/>
+            <a:gd name="adj1" fmla="val -22595"/>
+            <a:gd name="adj2" fmla="val 96810"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3915,68 +4008,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>このクラスのインスタンを作るぞ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>118383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>105367</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80282</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="角丸四角形吹き出し 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2871699" y="4010026"/>
-          <a:ext cx="1832882" cy="560613"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -50410"/>
-            <a:gd name="adj2" fmla="val -58627"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インスタンを出来たぞ</a:t>
+            <a:t>クラスのインスタンを作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3986,15 +4018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>127137</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>31296</xdr:rowOff>
+      <xdr:colOff>59101</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>15559</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>124416</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>102054</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4003,31 +4035,29 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2479812" y="5822496"/>
-          <a:ext cx="2422072" cy="680358"/>
+          <a:off x="2358708" y="5637439"/>
+          <a:ext cx="2364922" cy="669472"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -46185"/>
-            <a:gd name="adj2" fmla="val 77993"/>
+            <a:gd name="adj1" fmla="val -17417"/>
+            <a:gd name="adj2" fmla="val 165392"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4041,7 +4071,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンテナよ。このクラスのインスタンをください。</a:t>
+            <a:t>コンテナからインスタン取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4050,16 +4080,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>103414</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>80281</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>49577</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>31295</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4068,8 +4098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7704364" y="6720567"/>
-          <a:ext cx="1755913" cy="1387928"/>
+          <a:off x="9310006" y="6743700"/>
+          <a:ext cx="1577069" cy="1343026"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4092,35 +4122,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>クライアント</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4130,18 +4137,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>クラス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -4153,16 +4148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>112940</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>99331</xdr:rowOff>
+      <xdr:rowOff>91169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>103414</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>80281</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4172,9 +4167,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5838825" y="7414531"/>
-          <a:ext cx="1865539" cy="14969"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7713890" y="7406369"/>
+          <a:ext cx="1596116" cy="8844"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4202,15 +4197,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>8757</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>131220</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>102053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>78154</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4220,8 +4215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5799957" y="5740853"/>
-          <a:ext cx="2422072" cy="680358"/>
+          <a:off x="7008270" y="6198053"/>
+          <a:ext cx="2697705" cy="680358"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4233,18 +4228,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4258,7 +4251,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンテナにインスタンスを登録するぞ。</a:t>
+            <a:t>コンテナにクラス情報を登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4267,16 +4260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>25026</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>128022</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>174706</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>141628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>78153</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>50939</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>118380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4285,96 +4278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4368426" y="8052822"/>
-          <a:ext cx="1500927" cy="586353"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>インスタンス</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>27747</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>80874</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>101636</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="楕円 79"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371147" y="8820149"/>
-          <a:ext cx="1500927" cy="730287"/>
+          <a:off x="3889456" y="7026842"/>
+          <a:ext cx="1468269" cy="575467"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4485,10 +4390,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4529,8 +4434,8 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>6164</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
@@ -4545,8 +4450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3687536" y="11681093"/>
-          <a:ext cx="1840567" cy="772404"/>
+          <a:off x="3769179" y="11791950"/>
+          <a:ext cx="1885470" cy="884704"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4569,10 +4474,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4599,7 +4504,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>インスタンス</a:t>
+            <a:t>クラス情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4612,7 +4517,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4670,7 +4575,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4680,15 +4585,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>8606</xdr:colOff>
+      <xdr:colOff>6564</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>179854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>31404</xdr:colOff>
+      <xdr:colOff>30909</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>88248</xdr:rowOff>
+      <xdr:rowOff>88317</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4700,8 +4605,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4607820" y="12453497"/>
-          <a:ext cx="730370" cy="452680"/>
+          <a:off x="4711914" y="12676654"/>
+          <a:ext cx="748245" cy="451388"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4735,16 +4640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>17529</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>30654</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>112399</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>21303</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>169548</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>11778</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4753,8 +4658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371315" y="13447297"/>
-          <a:ext cx="2217584" cy="2086149"/>
+          <a:off x="942974" y="14335125"/>
+          <a:ext cx="1941199" cy="1611978"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4777,9 +4682,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4792,42 +4698,6 @@
             </a:rPr>
             <a:t>クライアント</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>クラス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4839,62 +4709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>141352</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>134552</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>138635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>44746</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2971638" y="14627679"/>
-          <a:ext cx="1137719" cy="31138"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>86925</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>134551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33537</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>148159</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4902,9 +4725,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2917211" y="14898301"/>
-          <a:ext cx="1184862" cy="13608"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3030152" y="15159560"/>
+          <a:ext cx="1951423" cy="23290"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4934,14 +4757,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>29853</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>40739</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>36100</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4950,54 +4773,97 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6751782" y="13430251"/>
-          <a:ext cx="2487386" cy="1070242"/>
+          <a:off x="6906903" y="13910583"/>
+          <a:ext cx="3422279" cy="957942"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -78516"/>
-            <a:gd name="adj2" fmla="val 17234"/>
+            <a:gd name="adj1" fmla="val -65713"/>
+            <a:gd name="adj2" fmla="val 9279"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>依存性の注入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>依存関係のあるインスタンに適切なインスタンを登録する</a:t>
+            <a:t>依存関係のあるインスタンスにルールや設定に基づいたインスタンス自動的に登録する</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>依存性の注入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5009,16 +4875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>172809</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>107897</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>115659</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>79322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5027,8 +4893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4721678" y="14532429"/>
-          <a:ext cx="1996167" cy="1087611"/>
+          <a:off x="5172075" y="14678025"/>
+          <a:ext cx="1458684" cy="1031822"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5051,10 +4917,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5088,7 +4954,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5099,8 +4965,8 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>6164</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
@@ -5115,8 +4981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5919107" y="11681093"/>
-          <a:ext cx="1840567" cy="772404"/>
+          <a:off x="6053818" y="11753850"/>
+          <a:ext cx="1881388" cy="922804"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5139,10 +5005,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5160,7 +5026,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -5169,7 +5035,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>インスタンス</a:t>
+            <a:t>クラス情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5182,7 +5048,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5240,7 +5106,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5250,7 +5116,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>113549</xdr:colOff>
+      <xdr:colOff>114044</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>179854</xdr:rowOff>
     </xdr:from>
@@ -5258,7 +5124,7 @@
       <xdr:col>38</xdr:col>
       <xdr:colOff>117462</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>88248</xdr:rowOff>
+      <xdr:rowOff>88317</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5270,8 +5136,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6127906" y="12453497"/>
-          <a:ext cx="711485" cy="452680"/>
+          <a:off x="6267194" y="12676654"/>
+          <a:ext cx="727318" cy="451388"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5306,15 +5172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>59191</xdr:colOff>
+      <xdr:colOff>72477</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>109928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>72477</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:colOff>110217</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5325,9 +5191,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5719762" y="13825928"/>
-          <a:ext cx="13286" cy="706501"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5863677" y="14064053"/>
+          <a:ext cx="37740" cy="613972"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5357,67 +5223,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>27805</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>131990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>91758</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>93889</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="角丸四角形吹き出し 132"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1973626" y="8214633"/>
-          <a:ext cx="1832882" cy="560613"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -17745"/>
-            <a:gd name="adj2" fmla="val -124161"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インスタンをもらったぞ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5453,18 +5258,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5484,6 +5287,432 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>50939</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="79" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5357725" y="7286626"/>
+          <a:ext cx="561382" cy="27950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53660</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>127140</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形吹き出し 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216085" y="8015967"/>
+          <a:ext cx="2426155" cy="677637"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15344"/>
+            <a:gd name="adj2" fmla="val -130578"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ルールや設定に基づいて</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コンテナがインスタンスを生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>172809</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>41222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="楕円 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="19973925"/>
+          <a:ext cx="1458684" cy="1031822"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>インスタンス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65474</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>70915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2599124" y="20250150"/>
+          <a:ext cx="3401626" cy="23290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112399</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>2253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="楕円 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="19507200"/>
+          <a:ext cx="1941199" cy="1611978"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クライアント</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>153761</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>3442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形吹き出し 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="21859875"/>
+          <a:ext cx="2544536" cy="1089292"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2447"/>
+            <a:gd name="adj2" fmla="val -97193"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メソッドの呼出し前や呼出し後などに共通的な処理を組み込める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2686050" y="20554950"/>
+          <a:ext cx="3267075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6640,10 +6869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN99"/>
+  <dimension ref="B1:AN117"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BR125" sqref="BR125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7719,6 +7948,11 @@
       <c r="X99" s="40"/>
       <c r="Y99" s="40"/>
     </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7730,8 +7964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J427"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
